--- a/BackTest/2020-01-16 BackTest LBA.xlsx
+++ b/BackTest/2020-01-16 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1375,10 +1375,14 @@
         <v>-1590270.336059487</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="J30" t="n">
+        <v>22.51</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
@@ -1411,8 +1415,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1451,19 @@
         <v>-1557855.560059487</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="J32" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2119,17 @@
         <v>-2070157.228259487</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>22.6</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2158,17 @@
         <v>-1857284.100659487</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>22.56</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2197,17 @@
         <v>-1856705.033059487</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>22.57</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2236,17 @@
         <v>-1827579.485659487</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>22.6</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2275,17 @@
         <v>-1827579.485659487</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>22.7</v>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2314,17 @@
         <v>-1861210.371659487</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>22.7</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2353,17 @@
         <v>-1861210.371659487</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>22.6</v>
+      </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2392,17 @@
         <v>-1844082.103959487</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>22.6</v>
+      </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2431,17 @@
         <v>-1844082.103959487</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>22.7</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,15 +2470,17 @@
         <v>-1844082.103959487</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>22.7</v>
       </c>
-      <c r="J61" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,17 +2509,15 @@
         <v>-1843982.103959487</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>22.7</v>
       </c>
-      <c r="J62" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2476,17 +2548,15 @@
         <v>-1851482.103959487</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>22.87</v>
       </c>
-      <c r="J63" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -2517,15 +2587,17 @@
         <v>-1851482.103959487</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>22.83</v>
       </c>
-      <c r="J64" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2554,17 +2626,15 @@
         <v>-1851482.103959487</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>22.83</v>
       </c>
-      <c r="J65" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2595,17 +2665,15 @@
         <v>-1852377.452659487</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>22.83</v>
       </c>
-      <c r="J66" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -2636,17 +2704,15 @@
         <v>-1827377.452659487</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>22.7</v>
       </c>
-      <c r="J67" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -2677,14 +2743,12 @@
         <v>-1827377.452659487</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>23.06</v>
       </c>
-      <c r="J68" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2718,14 +2782,12 @@
         <v>-1827377.452659487</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>23.06</v>
       </c>
-      <c r="J69" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2759,12 +2821,12 @@
         <v>-1827961.740559487</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>22.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2798,12 +2860,12 @@
         <v>-1812961.740559487</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>22.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2837,12 +2899,12 @@
         <v>-1812961.740559487</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>22.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2876,14 +2938,10 @@
         <v>-1807961.740559487</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="J73" t="n">
-        <v>22.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2917,14 +2975,12 @@
         <v>-1900955.698259487</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>23.52</v>
       </c>
-      <c r="J74" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2961,9 +3017,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3000,9 +3054,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3036,12 +3088,12 @@
         <v>-1962403.109359487</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>22.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3075,12 +3127,12 @@
         <v>-1961110.109359487</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>22.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3114,12 +3166,12 @@
         <v>-1961110.109359487</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>22.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3153,12 +3205,12 @@
         <v>-1960966.142559487</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>22.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3195,9 +3247,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3234,9 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3273,9 +3321,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3312,9 +3358,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3351,9 +3395,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3390,9 +3432,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3429,9 +3469,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3468,9 +3506,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3507,9 +3543,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3546,9 +3580,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3585,9 +3617,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3624,9 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3663,9 +3691,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3702,9 +3728,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3741,9 +3765,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3780,9 +3802,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3819,9 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3858,9 +3876,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3897,9 +3913,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3936,9 +3950,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3975,9 +3987,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4014,9 +4024,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4053,9 +4061,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4092,9 +4098,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4131,9 +4135,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4170,9 +4172,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4209,9 +4209,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4248,9 +4246,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4287,9 +4283,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4326,9 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4365,9 +4357,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4404,9 +4394,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4443,9 +4431,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4482,9 +4468,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4521,9 +4505,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4560,9 +4542,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4599,9 +4579,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4638,9 +4616,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4677,9 +4653,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4716,9 +4690,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4755,9 +4727,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4794,9 +4764,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4833,9 +4801,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4872,9 +4838,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4911,9 +4875,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4950,9 +4912,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4989,9 +4949,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5028,9 +4986,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5067,9 +5023,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5106,9 +5060,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5145,9 +5097,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5184,9 +5134,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5223,9 +5171,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5262,9 +5208,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5301,9 +5245,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5340,9 +5282,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5379,9 +5319,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5418,9 +5356,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5457,9 +5393,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5496,9 +5430,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5535,9 +5467,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5574,9 +5504,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5613,9 +5541,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5652,9 +5578,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5691,9 +5615,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5730,9 +5652,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5769,9 +5689,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5808,9 +5726,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5847,9 +5763,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5886,9 +5800,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5925,9 +5837,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5964,9 +5874,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6003,9 +5911,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6042,9 +5948,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6081,9 +5985,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6120,9 +6022,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6159,9 +6059,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6198,9 +6096,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6237,9 +6133,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6276,9 +6170,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6315,9 +6207,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6354,9 +6244,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6393,9 +6281,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6432,9 +6318,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6468,14 +6352,10 @@
         <v>-1989730.809023259</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J165" t="n">
-        <v>22.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6509,12 +6389,12 @@
         <v>-1978554.923323259</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>22.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6548,14 +6428,12 @@
         <v>-1957302.335723259</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>22.9</v>
       </c>
-      <c r="J167" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6589,14 +6467,10 @@
         <v>-1959079.173023259</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>23</v>
-      </c>
-      <c r="J168" t="n">
-        <v>22.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6630,14 +6504,12 @@
         <v>-1959079.173023259</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>22.9</v>
       </c>
-      <c r="J169" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6671,14 +6543,12 @@
         <v>-2063928.580223259</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>22.9</v>
       </c>
-      <c r="J170" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6712,14 +6582,12 @@
         <v>-2026543.580223259</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>22.62</v>
       </c>
-      <c r="J171" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6753,14 +6621,12 @@
         <v>-2026543.580223259</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>22.97</v>
       </c>
-      <c r="J172" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6794,12 +6660,12 @@
         <v>-2008700.580223259</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>22.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6833,14 +6699,10 @@
         <v>-2008700.580223259</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>23</v>
-      </c>
-      <c r="J174" t="n">
-        <v>22.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6874,14 +6736,12 @@
         <v>-2008700.580223259</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>23</v>
       </c>
-      <c r="J175" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6915,14 +6775,10 @@
         <v>-2008700.580223259</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>23</v>
-      </c>
-      <c r="J176" t="n">
-        <v>22.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6956,14 +6812,10 @@
         <v>-1992080.903023259</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>23</v>
-      </c>
-      <c r="J177" t="n">
-        <v>22.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7000,9 +6852,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7039,9 +6889,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7078,9 +6926,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7117,9 +6963,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7156,9 +7000,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7195,9 +7037,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7231,14 +7071,10 @@
         <v>-1953219.114723259</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="J184" t="n">
-        <v>22.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7275,9 +7111,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7314,9 +7148,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7353,9 +7185,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7392,9 +7222,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7431,9 +7259,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7470,9 +7296,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7509,9 +7333,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7548,9 +7370,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7587,9 +7407,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7626,9 +7444,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7665,9 +7481,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7704,9 +7518,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7743,9 +7555,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7782,9 +7592,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7818,12 +7626,12 @@
         <v>-2478193.796223259</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>22.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7857,12 +7665,12 @@
         <v>-2353237.924323258</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>22.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7899,9 +7707,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7935,12 +7741,12 @@
         <v>-2338237.924323258</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>22.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7974,12 +7780,12 @@
         <v>-2305185.487023259</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>22.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8013,12 +7819,12 @@
         <v>-2307099.487023259</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>22.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8052,12 +7858,12 @@
         <v>-2307099.487023259</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>22.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8094,9 +7900,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8130,12 +7934,12 @@
         <v>-2329852.487023259</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>22.83</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8172,9 +7976,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8211,9 +8013,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8250,9 +8050,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8289,9 +8087,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8328,9 +8124,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8367,9 +8161,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8406,9 +8198,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8445,9 +8235,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8484,9 +8272,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8523,9 +8309,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8562,9 +8346,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8601,9 +8383,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8640,9 +8420,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8679,9 +8457,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8718,9 +8494,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8757,9 +8531,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8796,9 +8568,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8835,9 +8605,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8874,9 +8642,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8913,9 +8679,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8952,9 +8716,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8991,9 +8753,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9030,9 +8790,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9066,23 +8824,19 @@
         <v>-1070942.177372341</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>22.83</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L231" t="n">
-        <v>1.134290407358739</v>
-      </c>
-      <c r="M231" t="n">
-        <v>1.051088405153265</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9111,7 +8865,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9140,11 +8898,15 @@
         <v>-993807.2349723405</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9177,7 +8939,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9206,11 +8972,15 @@
         <v>-1016274.032872341</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9239,11 +9009,15 @@
         <v>-910811.1608723406</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9272,11 +9046,15 @@
         <v>-1042441.653072341</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9305,11 +9083,15 @@
         <v>-1273974.898241325</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9338,11 +9120,15 @@
         <v>-1608192.743041325</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9371,11 +9157,15 @@
         <v>-1649614.980441325</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9408,7 +9198,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9441,7 +9235,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9474,7 +9272,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9507,7 +9309,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9540,7 +9346,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9569,11 +9379,15 @@
         <v>-1665450.835641325</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9606,7 +9420,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9639,7 +9457,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9668,11 +9490,15 @@
         <v>-1745351.458341325</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9705,7 +9531,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9738,7 +9568,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9771,7 +9605,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9804,7 +9642,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9837,7 +9679,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9870,7 +9716,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9903,7 +9753,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9936,7 +9790,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9969,7 +9827,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10002,7 +9864,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10035,7 +9901,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10068,7 +9938,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10101,7 +9975,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10134,7 +10012,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10167,7 +10049,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10200,7 +10086,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10229,14 +10119,16 @@
         <v>-1346901.622214085</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
@@ -10262,7 +10154,7 @@
         <v>-1391654.180114085</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10295,7 +10187,7 @@
         <v>-1345104.978414085</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10328,7 +10220,7 @@
         <v>-1319602.135714085</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10361,7 +10253,7 @@
         <v>-1439011.474614085</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10394,7 +10286,7 @@
         <v>-1388124.681014085</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10427,7 +10319,7 @@
         <v>-1388124.681014085</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10460,7 +10352,7 @@
         <v>-1445967.721514085</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10493,7 +10385,7 @@
         <v>-1644809.83072926</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10526,7 +10418,7 @@
         <v>-1635115.72002926</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10559,7 +10451,7 @@
         <v>-1642794.33282926</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10625,7 +10517,7 @@
         <v>-1698541.71922926</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10658,7 +10550,7 @@
         <v>-1742241.99522926</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10691,7 +10583,7 @@
         <v>-1749944.49612926</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10724,7 +10616,7 @@
         <v>-1724233.86702926</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10757,7 +10649,7 @@
         <v>-1739233.86702926</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10790,7 +10682,7 @@
         <v>-1888924.91692926</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10823,7 +10715,7 @@
         <v>-1850276.46772926</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10856,7 +10748,7 @@
         <v>-1851263.28862926</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11978,7 +11870,7 @@
         <v>-2028754.905429261</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12011,7 +11903,7 @@
         <v>-2037634.661629261</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12044,7 +11936,7 @@
         <v>-2240684.348229261</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12077,7 +11969,7 @@
         <v>-2116468.33462926</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12110,7 +12002,7 @@
         <v>-2116902.71462926</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12143,7 +12035,7 @@
         <v>-2199078.108429261</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12176,7 +12068,7 @@
         <v>-2174015.39192926</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12209,7 +12101,7 @@
         <v>-2174684.38622926</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12242,7 +12134,7 @@
         <v>-2176243.45422926</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -13232,7 +13124,7 @@
         <v>-2348365.280329261</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13430,7 +13322,7 @@
         <v>-2164831.082729261</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13496,7 +13388,7 @@
         <v>-2085182.261929261</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13628,7 +13520,7 @@
         <v>-1848630.253429261</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14354,7 +14246,7 @@
         <v>-2038295.234214911</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15883,6 +15775,6 @@
       <c r="M437" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest LBA.xlsx
+++ b/BackTest/2020-01-16 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1375,14 +1375,10 @@
         <v>-1590270.336059487</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>22.51</v>
-      </c>
-      <c r="J30" t="n">
-        <v>22.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
@@ -1415,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>22.51</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1451,19 +1441,11 @@
         <v>-1557855.560059487</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>23.17</v>
-      </c>
-      <c r="J32" t="n">
-        <v>22.51</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -2119,2953 +2101,2591 @@
         <v>-2070157.228259487</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="C53" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="D53" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="E53" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="F53" t="n">
+        <v>212873.1276</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1857284.100659487</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
         <v>22.6</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
+      <c r="C54" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D54" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E54" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="F54" t="n">
+        <v>579.0676</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-1856705.033059487</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C55" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D55" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E55" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F55" t="n">
+        <v>29125.5474</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1827579.485659487</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C56" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D56" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E56" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3865.1966</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-1827579.485659487</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C57" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D57" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E57" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="F57" t="n">
+        <v>33630.886</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1861210.371659487</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C58" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D58" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E58" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7977</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1861210.371659487</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C59" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D59" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="F59" t="n">
+        <v>17128.2677</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1844082.103959487</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C60" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D60" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E60" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F60" t="n">
+        <v>14283.389</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-1844082.103959487</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C61" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D61" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E61" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F61" t="n">
+        <v>53092.1594</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-1844082.103959487</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="C62" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="D62" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="E62" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="F62" t="n">
+        <v>100</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1843982.103959487</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="C63" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="D63" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="E63" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-1851482.103959487</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="C64" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="D64" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="E64" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-1851482.103959487</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="C65" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="D65" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="E65" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="F65" t="n">
+        <v>131</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-1851482.103959487</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C66" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D66" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E66" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F66" t="n">
+        <v>895.3487</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-1852377.452659487</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C67" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="D67" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="E67" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F67" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1827377.452659487</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="C68" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="D68" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="E68" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="F68" t="n">
+        <v>37500</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-1827377.452659487</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="C69" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="D69" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="E69" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2087.4751</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-1827377.452659487</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="C70" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="D70" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="E70" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="F70" t="n">
+        <v>584.2879</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-1827961.740559487</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="C71" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="D71" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="E71" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="F71" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-1812961.740559487</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="C72" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="D72" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="E72" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="F72" t="n">
+        <v>83328.2794</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-1812961.740559487</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="C73" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="D73" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="E73" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="F73" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-1807961.740559487</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C74" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E74" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>92993.9577</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-1900955.698259487</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="C75" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="D75" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="E75" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="F75" t="n">
+        <v>39299.0945</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-1940254.792759487</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="C76" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D76" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E76" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1322.3966</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-1938932.396159487</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C77" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D77" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E77" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F77" t="n">
+        <v>23470.7132</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-1962403.109359487</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="C78" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="D78" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="E78" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1293</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1961110.109359487</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="C79" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="D79" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="E79" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="F79" t="n">
+        <v>143.9668</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-1961110.109359487</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C80" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="D80" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="E80" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="F80" t="n">
+        <v>143.9668</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-1960966.142559487</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C81" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="D81" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="E81" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="F81" t="n">
+        <v>495</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-1960471.142559487</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="C82" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="D82" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="E82" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="F82" t="n">
+        <v>161.9049</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-1960309.237659487</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="C83" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="D83" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="E83" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="F83" t="n">
+        <v>20299</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-1960309.237659487</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="C84" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="D84" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="E84" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="F84" t="n">
+        <v>20299</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-1960309.237659487</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="D85" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="E85" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="F85" t="n">
+        <v>34179.7991</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-1960309.237659487</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="C86" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="D86" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="E86" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1490.5524</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-1961799.790059487</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C87" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="D87" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="E87" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="F87" t="n">
+        <v>500</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-1961299.790059487</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="C88" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="D88" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="E88" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-1958799.790059487</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="C89" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="D89" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="E89" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1956299.790059487</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C90" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D90" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="E90" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="F90" t="n">
+        <v>113</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-1956412.790059487</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="C91" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="D91" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="E91" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="F91" t="n">
+        <v>316.8249</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-1956095.965159487</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="C92" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="D92" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="E92" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="F92" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-1956095.965159487</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="C93" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="D93" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="E93" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="F93" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-1948595.965159487</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="C94" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="D94" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="E94" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="F94" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-1941095.965159487</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C95" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="D95" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="E95" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="F95" t="n">
+        <v>218082.2063</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-1941095.965159487</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C96" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E96" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>99987.7717</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-2041083.736859487</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="D97" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="E97" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>9219.4491</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-2031864.287759487</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="C98" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="D98" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="E98" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="F98" t="n">
+        <v>24382.6176</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-2056246.905359487</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="C99" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="D99" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="E99" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="F99" t="n">
+        <v>56657</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-1999589.905359487</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="C100" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="D100" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="E100" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="F100" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-2009589.905359487</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="C101" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="D101" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="E101" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="F101" t="n">
+        <v>79420.181</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-1930169.724359487</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E102" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>43837.2421</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-1974006.966459487</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E103" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-1974006.966459487</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C104" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="D104" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="E104" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2130.484836228182</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-1971876.481623258</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="D105" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="E105" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>46360.5882</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-2018237.069823259</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>23</v>
+      </c>
+      <c r="C106" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D106" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E106" t="n">
+        <v>23</v>
+      </c>
+      <c r="F106" t="n">
+        <v>5443.2141</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-2023680.283923259</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C107" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D107" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E107" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="F107" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-2023680.283923259</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C108" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E108" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="F108" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-2023680.283923259</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C109" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D109" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E109" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="F109" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-2023680.283923259</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="C110" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="D110" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="E110" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="F110" t="n">
+        <v>216.9936</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-2023897.277523258</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="C111" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="D111" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="E111" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-2021397.277523258</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="C112" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="D112" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="E112" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="F112" t="n">
+        <v>45620.7757</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-2067018.053223258</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>23</v>
+      </c>
+      <c r="D113" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>23</v>
+      </c>
+      <c r="F113" t="n">
+        <v>15308.1043</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2082326.157523258</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D114" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E114" t="n">
+        <v>23</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3758.1941</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-2078567.963423258</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C115" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="D115" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="E115" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>201600</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-1876967.963423258</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>298.429</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-1877266.392423258</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="C117" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="D117" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="E117" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F117" t="n">
+        <v>17513.3281</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-1859753.064323258</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C118" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>40</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-1859793.064323258</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>23.19</v>
+      </c>
+      <c r="C119" t="n">
+        <v>23.19</v>
+      </c>
+      <c r="D119" t="n">
+        <v>23.19</v>
+      </c>
+      <c r="E119" t="n">
+        <v>23.19</v>
+      </c>
+      <c r="F119" t="n">
+        <v>32068.0596</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-1891861.123923258</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="C120" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D120" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E120" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="F120" t="n">
+        <v>6546.3383</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-1885314.785623258</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="C121" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="E121" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F121" t="n">
+        <v>8407</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-1893721.785623258</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="C122" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="D122" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="F122" t="n">
+        <v>143166.3596</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-2036888.145223259</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="C123" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="D123" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="E123" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2062.3596</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-2034825.785623258</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C124" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="D124" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="E124" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F124" t="n">
+        <v>25102.3062</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-2059928.091823258</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C125" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>90928.1701</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1968999.921723258</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C126" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D126" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E126" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>18117.5064</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1987117.428123259</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C127" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D127" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E127" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F127" t="n">
+        <v>178018.4012</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-2165135.829323259</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C128" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D128" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>48535.198</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-2116600.631323259</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C129" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D129" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>8920.346</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-2116600.631323259</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="C130" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D130" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="F130" t="n">
+        <v>8666.2925</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-2116600.631323259</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>22.56</v>
-      </c>
-      <c r="C53" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="D53" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="E53" t="n">
-        <v>22.56</v>
-      </c>
-      <c r="F53" t="n">
-        <v>212873.1276</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-1857284.100659487</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>22.56</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="C54" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="D54" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="E54" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="F54" t="n">
-        <v>579.0676</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-1856705.033059487</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C55" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D55" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="E55" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F55" t="n">
-        <v>29125.5474</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-1827579.485659487</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C56" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D56" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="E56" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3865.1966</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-1827579.485659487</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C57" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="D57" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="E57" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="F57" t="n">
-        <v>33630.886</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-1861210.371659487</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="C58" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="D58" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="E58" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="F58" t="n">
-        <v>7977</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-1861210.371659487</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="C59" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D59" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="E59" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="F59" t="n">
-        <v>17128.2677</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-1844082.103959487</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C60" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D60" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="E60" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F60" t="n">
-        <v>14283.389</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-1844082.103959487</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C61" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D61" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="E61" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F61" t="n">
-        <v>53092.1594</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-1844082.103959487</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>22.87</v>
-      </c>
-      <c r="C62" t="n">
-        <v>22.87</v>
-      </c>
-      <c r="D62" t="n">
-        <v>22.87</v>
-      </c>
-      <c r="E62" t="n">
-        <v>22.87</v>
-      </c>
-      <c r="F62" t="n">
-        <v>100</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-1843982.103959487</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="C63" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="D63" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="E63" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="F63" t="n">
-        <v>7500</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-1851482.103959487</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>22.87</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="C64" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="D64" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="E64" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-1851482.103959487</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="C65" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="D65" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="E65" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="F65" t="n">
-        <v>131</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-1851482.103959487</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C66" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D66" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="E66" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F66" t="n">
-        <v>895.3487</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-1852377.452659487</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C67" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="D67" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="E67" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F67" t="n">
-        <v>25000</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-1827377.452659487</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="C68" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="D68" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="E68" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="F68" t="n">
-        <v>37500</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-1827377.452659487</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="C69" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="D69" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="E69" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2087.4751</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-1827377.452659487</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="C70" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="D70" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="E70" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="F70" t="n">
-        <v>584.2879</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-1827961.740559487</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="C71" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="D71" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="E71" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="F71" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-1812961.740559487</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="C72" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="D72" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="E72" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="F72" t="n">
-        <v>83328.2794</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-1812961.740559487</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>23.13</v>
-      </c>
-      <c r="C73" t="n">
-        <v>23.52</v>
-      </c>
-      <c r="D73" t="n">
-        <v>23.52</v>
-      </c>
-      <c r="E73" t="n">
-        <v>23.13</v>
-      </c>
-      <c r="F73" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-1807961.740559487</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="C74" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="D74" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="E74" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="F74" t="n">
-        <v>92993.9577</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-1900955.698259487</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>23.52</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="C75" t="n">
-        <v>22.81</v>
-      </c>
-      <c r="D75" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="E75" t="n">
-        <v>22.81</v>
-      </c>
-      <c r="F75" t="n">
-        <v>39299.0945</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-1940254.792759487</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>22.71</v>
-      </c>
-      <c r="C76" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="D76" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="E76" t="n">
-        <v>22.71</v>
-      </c>
-      <c r="F76" t="n">
-        <v>1322.3966</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-1938932.396159487</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="C77" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D77" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="E77" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F77" t="n">
-        <v>23470.7132</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-1962403.109359487</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="C78" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="D78" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="E78" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1293</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-1961110.109359487</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="C79" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="D79" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="E79" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="F79" t="n">
-        <v>143.9668</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-1961110.109359487</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="C80" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="D80" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="E80" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F80" t="n">
-        <v>143.9668</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-1960966.142559487</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="C81" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="D81" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="E81" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="F81" t="n">
-        <v>495</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-1960471.142559487</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="C82" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="D82" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="E82" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="F82" t="n">
-        <v>161.9049</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-1960309.237659487</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="C83" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="D83" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="E83" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="F83" t="n">
-        <v>20299</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-1960309.237659487</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="C84" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="D84" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="E84" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="F84" t="n">
-        <v>20299</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-1960309.237659487</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="C85" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="D85" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="E85" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="F85" t="n">
-        <v>34179.7991</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-1960309.237659487</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>23.34</v>
-      </c>
-      <c r="C86" t="n">
-        <v>23.34</v>
-      </c>
-      <c r="D86" t="n">
-        <v>23.34</v>
-      </c>
-      <c r="E86" t="n">
-        <v>23.34</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1490.5524</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-1961799.790059487</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="C87" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="D87" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="E87" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="F87" t="n">
-        <v>500</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-1961299.790059487</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>23.69</v>
-      </c>
-      <c r="C88" t="n">
-        <v>23.69</v>
-      </c>
-      <c r="D88" t="n">
-        <v>23.69</v>
-      </c>
-      <c r="E88" t="n">
-        <v>23.69</v>
-      </c>
-      <c r="F88" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-1958799.790059487</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="C89" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="D89" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="E89" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="F89" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-1956299.790059487</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="C90" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="D90" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="E90" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="F90" t="n">
-        <v>113</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-1956412.790059487</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="C91" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="D91" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="E91" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="F91" t="n">
-        <v>316.8249</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-1956095.965159487</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="C92" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="D92" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="E92" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="F92" t="n">
-        <v>7500</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-1956095.965159487</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="C93" t="n">
-        <v>23.77</v>
-      </c>
-      <c r="D93" t="n">
-        <v>23.77</v>
-      </c>
-      <c r="E93" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="F93" t="n">
-        <v>7500</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-1948595.965159487</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="C94" t="n">
-        <v>23.78</v>
-      </c>
-      <c r="D94" t="n">
-        <v>23.78</v>
-      </c>
-      <c r="E94" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="F94" t="n">
-        <v>7500</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-1941095.965159487</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="C95" t="n">
-        <v>23.78</v>
-      </c>
-      <c r="D95" t="n">
-        <v>23.78</v>
-      </c>
-      <c r="E95" t="n">
-        <v>23.13</v>
-      </c>
-      <c r="F95" t="n">
-        <v>218082.2063</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-1941095.965159487</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="C96" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="D96" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="E96" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="F96" t="n">
-        <v>99987.7717</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-2041083.736859487</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="C97" t="n">
-        <v>23.74</v>
-      </c>
-      <c r="D97" t="n">
-        <v>23.74</v>
-      </c>
-      <c r="E97" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="F97" t="n">
-        <v>9219.4491</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-2031864.287759487</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="C98" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="D98" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="E98" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="F98" t="n">
-        <v>24382.6176</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-2056246.905359487</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="C99" t="n">
-        <v>23.43</v>
-      </c>
-      <c r="D99" t="n">
-        <v>23.53</v>
-      </c>
-      <c r="E99" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="F99" t="n">
-        <v>56657</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-1999589.905359487</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="C100" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="D100" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="E100" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="F100" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-2009589.905359487</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="C101" t="n">
-        <v>23.45</v>
-      </c>
-      <c r="D101" t="n">
-        <v>23.45</v>
-      </c>
-      <c r="E101" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="F101" t="n">
-        <v>79420.181</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-1930169.724359487</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="C102" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="D102" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="E102" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="F102" t="n">
-        <v>43837.2421</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-1974006.966459487</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="C103" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="D103" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="E103" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="F103" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-1974006.966459487</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="C104" t="n">
-        <v>23.49</v>
-      </c>
-      <c r="D104" t="n">
-        <v>23.49</v>
-      </c>
-      <c r="E104" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F104" t="n">
-        <v>2130.484836228182</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-1971876.481623258</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="C105" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="D105" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="E105" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="F105" t="n">
-        <v>46360.5882</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-2018237.069823259</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>23</v>
-      </c>
-      <c r="C106" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="D106" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="E106" t="n">
-        <v>23</v>
-      </c>
-      <c r="F106" t="n">
-        <v>5443.2141</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-2023680.283923259</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="C107" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="D107" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="E107" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="F107" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-2023680.283923259</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="C108" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="D108" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="E108" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="F108" t="n">
-        <v>12500</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-2023680.283923259</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="C109" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="D109" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="E109" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="F109" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-2023680.283923259</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>22.91</v>
-      </c>
-      <c r="C110" t="n">
-        <v>22.91</v>
-      </c>
-      <c r="D110" t="n">
-        <v>22.91</v>
-      </c>
-      <c r="E110" t="n">
-        <v>22.91</v>
-      </c>
-      <c r="F110" t="n">
-        <v>216.9936</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-2023897.277523258</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>23.37</v>
-      </c>
-      <c r="C111" t="n">
-        <v>23.38</v>
-      </c>
-      <c r="D111" t="n">
-        <v>23.38</v>
-      </c>
-      <c r="E111" t="n">
-        <v>23.37</v>
-      </c>
-      <c r="F111" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-2021397.277523258</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>23.14</v>
-      </c>
-      <c r="C112" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="D112" t="n">
-        <v>23.14</v>
-      </c>
-      <c r="E112" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="F112" t="n">
-        <v>45620.7757</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-2067018.053223258</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="C113" t="n">
-        <v>23</v>
-      </c>
-      <c r="D113" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="E113" t="n">
-        <v>23</v>
-      </c>
-      <c r="F113" t="n">
-        <v>15308.1043</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-2082326.157523258</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="C114" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="D114" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="E114" t="n">
-        <v>23</v>
-      </c>
-      <c r="F114" t="n">
-        <v>3758.1941</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-2078567.963423258</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="C115" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="D115" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="E115" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="F115" t="n">
-        <v>201600</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-1876967.963423258</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="C116" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="D116" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="E116" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="F116" t="n">
-        <v>298.429</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-1877266.392423258</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>22.91</v>
-      </c>
-      <c r="C117" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="D117" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="E117" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="F117" t="n">
-        <v>17513.3281</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-1859753.064323258</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="C118" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="D118" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="E118" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="F118" t="n">
-        <v>40</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-1859793.064323258</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>23.19</v>
-      </c>
-      <c r="C119" t="n">
-        <v>23.19</v>
-      </c>
-      <c r="D119" t="n">
-        <v>23.19</v>
-      </c>
-      <c r="E119" t="n">
-        <v>23.19</v>
-      </c>
-      <c r="F119" t="n">
-        <v>32068.0596</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-1891861.123923258</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="C120" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="D120" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="E120" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="F120" t="n">
-        <v>6546.3383</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-1885314.785623258</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="C121" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="D121" t="n">
-        <v>22.93</v>
-      </c>
-      <c r="E121" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="F121" t="n">
-        <v>8407</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-1893721.785623258</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="C122" t="n">
-        <v>22.67</v>
-      </c>
-      <c r="D122" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="E122" t="n">
-        <v>22.67</v>
-      </c>
-      <c r="F122" t="n">
-        <v>143166.3596</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-2036888.145223259</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>23.18</v>
-      </c>
-      <c r="C123" t="n">
-        <v>23.18</v>
-      </c>
-      <c r="D123" t="n">
-        <v>23.18</v>
-      </c>
-      <c r="E123" t="n">
-        <v>23.18</v>
-      </c>
-      <c r="F123" t="n">
-        <v>2062.3596</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-2034825.785623258</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="C124" t="n">
-        <v>23.08</v>
-      </c>
-      <c r="D124" t="n">
-        <v>23.08</v>
-      </c>
-      <c r="E124" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F124" t="n">
-        <v>25102.3062</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-2059928.091823258</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="C125" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="D125" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="E125" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F125" t="n">
-        <v>90928.1701</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-1968999.921723258</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="C126" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D126" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E126" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F126" t="n">
-        <v>18117.5064</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-1987117.428123259</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="C127" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D127" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E127" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F127" t="n">
-        <v>178018.4012</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-2165135.829323259</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="C128" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D128" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E128" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F128" t="n">
-        <v>48535.198</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-2116600.631323259</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="C129" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D129" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E129" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F129" t="n">
-        <v>8920.346</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-2116600.631323259</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>22.77</v>
-      </c>
-      <c r="C130" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D130" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E130" t="n">
-        <v>22.77</v>
-      </c>
-      <c r="F130" t="n">
-        <v>8666.2925</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-2116600.631323259</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5094,9 +4714,11 @@
         <v>-2115974.251923259</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>22.8</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5131,9 +4753,11 @@
         <v>-2089746.531823259</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>22.9</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5168,9 +4792,11 @@
         <v>-2091495.588223259</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>23.41</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5205,9 +4831,11 @@
         <v>-2101842.297323259</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>22.91</v>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5242,9 +4870,11 @@
         <v>-2049320.575423259</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>22.9</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -6019,9 +5649,11 @@
         <v>-1844648.465523259</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>22.81</v>
+      </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -6093,9 +5725,11 @@
         <v>-1844648.465523259</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>22.9</v>
+      </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -6130,9 +5764,11 @@
         <v>-1844648.465523259</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>22.9</v>
+      </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -6167,9 +5803,11 @@
         <v>-1994413.599723259</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>22.9</v>
+      </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -6241,9 +5879,11 @@
         <v>-2009522.715523259</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>22.6</v>
+      </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6278,9 +5918,11 @@
         <v>-2009522.715523259</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>22.55</v>
+      </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6315,9 +5957,11 @@
         <v>-1990003.645323259</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>22.55</v>
+      </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6352,9 +5996,11 @@
         <v>-1989730.809023259</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>22.6</v>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6467,9 +6113,11 @@
         <v>-1959079.173023259</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>23</v>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6699,9 +6347,11 @@
         <v>-2008700.580223259</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>23</v>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6775,9 +6425,11 @@
         <v>-2008700.580223259</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>23</v>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6812,9 +6464,11 @@
         <v>-1992080.903023259</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>23</v>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6849,9 +6503,11 @@
         <v>-1989580.903023259</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>23.17</v>
+      </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -6886,9 +6542,11 @@
         <v>-1987080.903023259</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>23.24</v>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -6923,9 +6581,11 @@
         <v>-1953147.332023259</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>23.32</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -6960,9 +6620,11 @@
         <v>-1953443.960323259</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>23.38</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -6997,9 +6659,11 @@
         <v>-1953443.960323259</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>23.2</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -7034,9 +6698,11 @@
         <v>-1953219.114723259</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>23.2</v>
+      </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -7145,9 +6811,11 @@
         <v>-1936719.114723259</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>23.5</v>
+      </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -7626,11 +7294,9 @@
         <v>-2478193.796223259</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>23.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7665,11 +7331,9 @@
         <v>-2353237.924323258</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>22.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7741,11 +7405,9 @@
         <v>-2338237.924323258</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>22.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -7819,11 +7481,9 @@
         <v>-2307099.487023259</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>23.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -7858,11 +7518,9 @@
         <v>-2307099.487023259</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>23.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -7897,9 +7555,11 @@
         <v>-2329852.487023259</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>23.15</v>
+      </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -7973,9 +7633,11 @@
         <v>-2329852.487023259</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>23.14</v>
+      </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -8010,9 +7672,11 @@
         <v>-2329852.487023259</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>23.14</v>
+      </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -8047,9 +7711,11 @@
         <v>-2289690.204723259</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>23.14</v>
+      </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -8084,9 +7750,11 @@
         <v>-2289690.204723259</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>23.38</v>
+      </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -8121,9 +7789,11 @@
         <v>-2289690.204723259</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>23.38</v>
+      </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -9897,18 +9567,16 @@
         <v>-1733346.29669083</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
@@ -9934,15 +9602,11 @@
         <v>-1715792.49409083</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9971,15 +9635,11 @@
         <v>-1377564.564590829</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10012,11 +9672,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10049,11 +9705,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10086,11 +9738,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10119,16 +9767,14 @@
         <v>-1346901.622214085</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
       <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
@@ -10154,7 +9800,7 @@
         <v>-1391654.180114085</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10187,7 +9833,7 @@
         <v>-1345104.978414085</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10220,7 +9866,7 @@
         <v>-1319602.135714085</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10253,7 +9899,7 @@
         <v>-1439011.474614085</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10286,7 +9932,7 @@
         <v>-1388124.681014085</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10319,7 +9965,7 @@
         <v>-1388124.681014085</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10352,7 +9998,7 @@
         <v>-1445967.721514085</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10385,7 +10031,7 @@
         <v>-1644809.83072926</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10418,7 +10064,7 @@
         <v>-1635115.72002926</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10451,7 +10097,7 @@
         <v>-1642794.33282926</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10517,7 +10163,7 @@
         <v>-1698541.71922926</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10550,7 +10196,7 @@
         <v>-1742241.99522926</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10583,7 +10229,7 @@
         <v>-1749944.49612926</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10616,7 +10262,7 @@
         <v>-1724233.86702926</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10649,7 +10295,7 @@
         <v>-1739233.86702926</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10682,7 +10328,7 @@
         <v>-1888924.91692926</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10715,7 +10361,7 @@
         <v>-1850276.46772926</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10748,7 +10394,7 @@
         <v>-1851263.28862926</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -15775,6 +15421,6 @@
       <c r="M437" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest LBA.xlsx
+++ b/BackTest/2020-01-16 BackTest LBA.xlsx
@@ -2332,11 +2332,17 @@
         <v>-1844082.103959487</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>22.6</v>
+      </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2371,17 @@
         <v>-1844082.103959487</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>22.7</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2410,17 @@
         <v>-1844082.103959487</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>22.7</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2453,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2486,17 @@
         <v>-1851482.103959487</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>22.87</v>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2529,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2562,17 @@
         <v>-1851482.103959487</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>22.83</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2601,17 @@
         <v>-1852377.452659487</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>22.83</v>
+      </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2640,17 @@
         <v>-1827377.452659487</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>22.7</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2679,17 @@
         <v>-1827377.452659487</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>23.06</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2722,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2759,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2792,17 @@
         <v>-1812961.740559487</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>22.66</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2831,17 @@
         <v>-1812961.740559487</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>23.06</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2870,17 @@
         <v>-1807961.740559487</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>23.06</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +2913,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +2950,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +2987,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3024,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3061,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3098,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3135,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3172,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3209,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3246,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3283,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3320,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3357,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3394,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3431,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3468,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3505,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3542,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3579,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3616,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3653,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3690,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3727,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3764,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3801,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +3838,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +3875,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +3912,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +3949,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +3986,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4023,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4060,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4097,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4134,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4171,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4208,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4245,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4282,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4319,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4356,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4393,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4430,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4467,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4504,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4541,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4578,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4615,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4652,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4689,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4726,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4763,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +4800,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4837,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +4874,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +4911,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +4948,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,15 +4981,13 @@
         <v>-2116600.631323259</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>22.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L130" t="n">
@@ -4714,11 +5018,9 @@
         <v>-2115974.251923259</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>22.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -4753,11 +5055,9 @@
         <v>-2089746.531823259</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>22.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -4792,11 +5092,9 @@
         <v>-2091495.588223259</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>23.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -4831,11 +5129,9 @@
         <v>-2101842.297323259</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>22.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -4870,11 +5166,9 @@
         <v>-2049320.575423259</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>22.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5649,11 +5943,9 @@
         <v>-1844648.465523259</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>22.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -5725,11 +6017,9 @@
         <v>-1844648.465523259</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>22.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -5764,11 +6054,9 @@
         <v>-1844648.465523259</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>22.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -5803,11 +6091,9 @@
         <v>-1994413.599723259</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>22.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -5879,11 +6165,9 @@
         <v>-2009522.715523259</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>22.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6811,11 +7095,9 @@
         <v>-1936719.114723259</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>23.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -7331,9 +7613,11 @@
         <v>-2353237.924323258</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>22.81</v>
+      </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7368,9 +7652,11 @@
         <v>-2338237.924323258</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>22.9</v>
+      </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7405,9 +7691,11 @@
         <v>-2338237.924323258</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>22.99</v>
+      </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -7481,9 +7769,11 @@
         <v>-2307099.487023259</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>23.16</v>
+      </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -7518,9 +7808,11 @@
         <v>-2307099.487023259</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>23.15</v>
+      </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -7828,9 +8120,11 @@
         <v>-2287190.204723259</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>23.38</v>
+      </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -7865,9 +8159,11 @@
         <v>-2285522.400323259</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>23.75</v>
+      </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
@@ -7902,9 +8198,11 @@
         <v>-2216401.400323259</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>23.79</v>
+      </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -7939,9 +8237,11 @@
         <v>-2213901.400323259</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>23.8</v>
+      </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -7976,9 +8276,11 @@
         <v>-2176294.273923259</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>23.91</v>
+      </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8013,9 +8315,11 @@
         <v>-2176294.273923259</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>23.95</v>
+      </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -8050,9 +8354,11 @@
         <v>-2174561.863123259</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>23.95</v>
+      </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -8124,9 +8430,11 @@
         <v>-2134561.863123259</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>24.06</v>
+      </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -8457,18 +8765,16 @@
         <v>-1450607.28297234</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
@@ -8498,11 +8804,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8535,11 +8837,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8572,11 +8870,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8605,15 +8899,11 @@
         <v>-878804.2427723405</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8642,15 +8932,11 @@
         <v>-1016274.032872341</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8679,15 +8965,11 @@
         <v>-910811.1608723406</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8716,15 +8998,11 @@
         <v>-1042441.653072341</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8753,15 +9031,11 @@
         <v>-1273974.898241325</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8790,15 +9064,11 @@
         <v>-1608192.743041325</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8827,15 +9097,11 @@
         <v>-1649614.980441325</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8864,15 +9130,11 @@
         <v>-1648561.980441325</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8901,15 +9163,11 @@
         <v>-1883816.937541325</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8938,15 +9196,11 @@
         <v>-1846559.203541325</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8975,15 +9229,11 @@
         <v>-1848882.203741325</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9012,15 +9262,11 @@
         <v>-1792262.894041324</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9053,11 +9299,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9086,15 +9328,11 @@
         <v>-1671591.676041325</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9127,11 +9365,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9164,11 +9398,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9201,11 +9431,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9234,15 +9460,11 @@
         <v>-1723717.96729083</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9271,15 +9493,11 @@
         <v>-1723717.96729083</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9312,11 +9530,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9349,11 +9563,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9386,11 +9596,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9423,11 +9629,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9456,15 +9658,11 @@
         <v>-1860925.39499083</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9497,11 +9695,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9534,11 +9728,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9567,16 +9757,14 @@
         <v>-1733346.29669083</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
       <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
@@ -9602,7 +9790,7 @@
         <v>-1715792.49409083</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9635,7 +9823,7 @@
         <v>-1377564.564590829</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9668,7 +9856,7 @@
         <v>-1377564.564590829</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -12737,7 +12925,7 @@
         <v>-2206801.837129261</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12770,7 +12958,7 @@
         <v>-2348365.280329261</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
